--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail1 Features.xlsx
@@ -3735,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.708533302690776</v>
+        <v>1.720366210082962</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.412333225096686</v>
@@ -3824,7 +3824,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.701573981253576</v>
+        <v>1.719108795530771</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.391140175450404</v>
@@ -3913,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.725371679331954</v>
+        <v>1.744284525194643</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.322544872549053</v>
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70728547241323</v>
+        <v>1.727853435248782</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.406377576352467</v>
@@ -4091,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69843058533941</v>
+        <v>1.720920561650413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.414892624413028</v>
@@ -4180,7 +4180,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.710121721966139</v>
+        <v>1.733130522521126</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.441448887991264</v>
@@ -4269,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.713316477929582</v>
+        <v>1.736924098082028</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.448505839309895</v>
@@ -4358,7 +4358,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.716249116618281</v>
+        <v>1.736096591466206</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.343336567977226</v>
@@ -4447,7 +4447,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709308185003442</v>
+        <v>1.729347983684484</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.392209950849153</v>
@@ -4536,7 +4536,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.711518602153844</v>
+        <v>1.734060220759778</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.404469708090187</v>
@@ -4625,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.710195835251446</v>
+        <v>1.729828580963061</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.376241043585985</v>
@@ -4714,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.740186536970247</v>
+        <v>1.771703966104246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.439140234376837</v>
@@ -4803,7 +4803,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.784210265040069</v>
+        <v>1.810233282029553</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.418208910417859</v>
@@ -4892,7 +4892,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.782277759949655</v>
+        <v>1.807998791616133</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.384630112693781</v>
@@ -4981,7 +4981,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.804907716216621</v>
+        <v>1.824812131478666</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.413496336630109</v>
@@ -5070,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.820378940796225</v>
+        <v>1.837858874533131</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.270814315505185</v>
@@ -5159,7 +5159,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.830338859301739</v>
+        <v>1.84127486714018</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.858172704878018</v>
@@ -5248,7 +5248,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.830174171893161</v>
+        <v>1.838989317730765</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.189872316844368</v>
@@ -5337,7 +5337,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.857693022773071</v>
+        <v>1.86460185402107</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.448259433117306</v>
@@ -5426,7 +5426,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.869773670034759</v>
+        <v>1.870828573069174</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.317848186919551</v>
@@ -5515,7 +5515,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.855027030125441</v>
+        <v>1.854566216917859</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.011630990704429</v>
@@ -5604,7 +5604,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.829472690116596</v>
+        <v>1.829498380548389</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.08611282256425</v>
@@ -5693,7 +5693,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.829696192756477</v>
+        <v>1.830312246837453</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.179019658088915</v>
@@ -5782,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.819667948478148</v>
+        <v>1.815410619727164</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.048152548692584</v>
@@ -5871,7 +5871,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.820604404700518</v>
+        <v>1.816040390982806</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.505378351354717</v>
@@ -5960,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.817359731254978</v>
+        <v>1.814963662256172</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.393717580161699</v>
@@ -6049,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.804955893510226</v>
+        <v>1.801388019398036</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.23101604572259</v>
@@ -6138,7 +6138,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.820310737842928</v>
+        <v>1.813174359845862</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.356572756746659</v>
@@ -6227,7 +6227,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.815675536693405</v>
+        <v>1.811588200690349</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.661334935592391</v>
@@ -6316,7 +6316,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.787440832921225</v>
+        <v>1.790067399788734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.309727295902555</v>
@@ -6405,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778014368484176</v>
+        <v>1.786830692076812</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.354045592309185</v>
@@ -6494,7 +6494,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775268233712827</v>
+        <v>1.784744676289892</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.503489924007618</v>
@@ -6583,7 +6583,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.751897261221088</v>
+        <v>1.761443971742952</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.528425923443129</v>
@@ -6672,7 +6672,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.73014009421765</v>
+        <v>1.739697188734161</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.075576868701174</v>
@@ -6761,7 +6761,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722122421741756</v>
+        <v>1.735996307208831</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.007943194928318</v>
@@ -6850,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.739768743511254</v>
+        <v>1.752789251675247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.197949684857053</v>
@@ -6939,7 +6939,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.759456743044878</v>
+        <v>1.766241553785478</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.331300441149537</v>
@@ -7028,7 +7028,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.75360522257013</v>
+        <v>1.761650521129348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.088608917302982</v>
@@ -7117,7 +7117,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.755487275976189</v>
+        <v>1.768122851217664</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.979072549518771</v>
@@ -7206,7 +7206,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.753343552740796</v>
+        <v>1.766212445781641</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.31320249538993</v>
@@ -7295,7 +7295,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.758901203455671</v>
+        <v>1.77153472589797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.908428561509237</v>
@@ -7384,7 +7384,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.768690237233394</v>
+        <v>1.776652612488186</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.072008647579364</v>
@@ -7670,7 +7670,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532007660096786</v>
+        <v>1.556737243397002</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.427026300799433</v>
@@ -7759,7 +7759,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536478963087466</v>
+        <v>1.558863331605578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.327121696815013</v>
@@ -7848,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.572861590907023</v>
+        <v>1.591542666368989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.271735957655109</v>
@@ -7937,7 +7937,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582407797758099</v>
+        <v>1.596958539319899</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.404548289513408</v>
@@ -8026,7 +8026,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571703992606295</v>
+        <v>1.585827411535307</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.349969379557721</v>
@@ -8115,7 +8115,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.582397129074024</v>
+        <v>1.600087659403405</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.357515204964284</v>
@@ -8204,7 +8204,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581350968363811</v>
+        <v>1.586766614660062</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.329612475166712</v>
@@ -8293,7 +8293,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577959213366558</v>
+        <v>1.586020195638238</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.412820457961032</v>
@@ -8382,7 +8382,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582649561722724</v>
+        <v>1.58962902796121</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.306277525907232</v>
@@ -8471,7 +8471,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589474310637958</v>
+        <v>1.594847623550225</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.377936476956051</v>
@@ -8560,7 +8560,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588780017230165</v>
+        <v>1.593636937186862</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.273944268169118</v>
@@ -8649,7 +8649,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589025468687362</v>
+        <v>1.597752486234301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.299415036684507</v>
@@ -8738,7 +8738,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608788847809991</v>
+        <v>1.617324255484432</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.167343562245118</v>
@@ -8827,7 +8827,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.614792892607222</v>
+        <v>1.625859490360697</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.33965568403779</v>
@@ -8916,7 +8916,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.634980395806244</v>
+        <v>1.641670341476731</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.231482157566242</v>
@@ -9005,7 +9005,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601114285608578</v>
+        <v>1.61560370247901</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.995011577297684</v>
@@ -9094,7 +9094,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5861210637574</v>
+        <v>1.606855836031338</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.584394646696926</v>
@@ -9183,7 +9183,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581909501460984</v>
+        <v>1.604339171566374</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.632264631235899</v>
@@ -9272,7 +9272,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586539527573929</v>
+        <v>1.608119854664832</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.826963704042678</v>
@@ -9361,7 +9361,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.578037891652386</v>
+        <v>1.596736828773581</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.777604619829661</v>
@@ -9450,7 +9450,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.583833558634355</v>
+        <v>1.599105625867731</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.350543545226193</v>
@@ -9539,7 +9539,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.607816774165289</v>
+        <v>1.619265226258818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.645620484604463</v>
@@ -9628,7 +9628,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.617493566183608</v>
+        <v>1.636792857878901</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.476505540747063</v>
@@ -9717,7 +9717,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627311126345759</v>
+        <v>1.645052521592268</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.785747467092433</v>
@@ -9806,7 +9806,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627159685656911</v>
+        <v>1.646421810699451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.680760864723248</v>
@@ -9895,7 +9895,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.623780892691417</v>
+        <v>1.6405862873396</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.768626935164279</v>
@@ -9984,7 +9984,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608535704166556</v>
+        <v>1.624609017137656</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.704125728745583</v>
@@ -10073,7 +10073,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.612431570645244</v>
+        <v>1.627539725445345</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.82637794442472</v>
@@ -10162,7 +10162,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.595571454410329</v>
+        <v>1.61053916965572</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.755542382249773</v>
@@ -10251,7 +10251,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570829930043596</v>
+        <v>1.579673834993869</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.29910643921449</v>
@@ -10340,7 +10340,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55217599788327</v>
+        <v>1.55675827398335</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.388528269454653</v>
@@ -10429,7 +10429,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.540860113581025</v>
+        <v>1.549731824023989</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.438378352254005</v>
@@ -10518,7 +10518,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.517740698768389</v>
+        <v>1.52576469430497</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.582513179276732</v>
@@ -10607,7 +10607,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.497215689368914</v>
+        <v>1.50492665701867</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.620406067846832</v>
@@ -10696,7 +10696,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.500080183651625</v>
+        <v>1.513918539381212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587481901879546</v>
@@ -10785,7 +10785,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48974501369294</v>
+        <v>1.499949317105173</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.626143654028059</v>
@@ -10874,7 +10874,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.481128687160615</v>
+        <v>1.495308943113412</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.624816649092932</v>
@@ -10963,7 +10963,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.47280613247014</v>
+        <v>1.48437927567888</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.566782064180848</v>
@@ -11052,7 +11052,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.462793266732848</v>
+        <v>1.470479488306989</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.67378666200941</v>
@@ -11141,7 +11141,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.457012791846688</v>
+        <v>1.469220588411033</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.638807781663943</v>
@@ -11230,7 +11230,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.45275392058642</v>
+        <v>1.465823370080931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.659220933375367</v>
@@ -11319,7 +11319,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.464193388604651</v>
+        <v>1.474901220397286</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.687672744730988</v>
@@ -11605,7 +11605,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.826619239536241</v>
+        <v>1.808343618504531</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.002747692333805</v>
@@ -11694,7 +11694,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.836145735170339</v>
+        <v>1.817986511651967</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.212663890221752</v>
@@ -11783,7 +11783,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.848617157716732</v>
+        <v>1.835025533763829</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.075887206516308</v>
@@ -11872,7 +11872,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.842314886295271</v>
+        <v>1.82857221322846</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.098348546378384</v>
@@ -11961,7 +11961,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.83948763679746</v>
+        <v>1.826527325294128</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.051450838970027</v>
@@ -12050,7 +12050,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.844796559403302</v>
+        <v>1.833380684160164</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.999511318228878</v>
@@ -12139,7 +12139,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.842564444024243</v>
+        <v>1.833649743202972</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.990772209412163</v>
@@ -12228,7 +12228,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.840352279512189</v>
+        <v>1.83200819808925</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.28113830796512</v>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.842004397976427</v>
+        <v>1.831411845997975</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.947569622940996</v>
@@ -12406,7 +12406,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.835771329892484</v>
+        <v>1.821385103654622</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.90122635519689</v>
@@ -12495,7 +12495,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.833565066299387</v>
+        <v>1.822077331953784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.033288236864619</v>
@@ -12584,7 +12584,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.834498268171428</v>
+        <v>1.829180637405498</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.920880681466557</v>
@@ -12673,7 +12673,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.837326459361807</v>
+        <v>1.830981061657958</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.042649058842265</v>
@@ -12762,7 +12762,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.835776551528483</v>
+        <v>1.83308393054654</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.247618406770147</v>
@@ -12851,7 +12851,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.862160300875919</v>
+        <v>1.848202547498552</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.172589560477992</v>
@@ -12940,7 +12940,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.856844209099605</v>
+        <v>1.8362603979032</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.578759645354189</v>
@@ -13029,7 +13029,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.855753951468616</v>
+        <v>1.832566040707867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.599008899299506</v>
@@ -13118,7 +13118,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.854643724574412</v>
+        <v>1.830485155339263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.45221140998851</v>
@@ -13207,7 +13207,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.850297660190165</v>
+        <v>1.826617786951903</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.655800258045187</v>
@@ -13296,7 +13296,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.854709364439611</v>
+        <v>1.834004702271043</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.497813854226777</v>
@@ -13385,7 +13385,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.845592461284185</v>
+        <v>1.824557820409118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.446905649116688</v>
@@ -13474,7 +13474,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.845323765254478</v>
+        <v>1.817082729304245</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.320213451899401</v>
@@ -13563,7 +13563,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.842387082989041</v>
+        <v>1.813410955647818</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.576482029337339</v>
@@ -13652,7 +13652,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.838400074943487</v>
+        <v>1.806672877656764</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.054345174601562</v>
@@ -13741,7 +13741,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.842192823154771</v>
+        <v>1.816549487675939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.803265058836701</v>
@@ -13830,7 +13830,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.836946766909898</v>
+        <v>1.807949047108207</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.510093856304685</v>
@@ -13919,7 +13919,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.838013610005016</v>
+        <v>1.803361498421023</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.599929256756097</v>
@@ -14008,7 +14008,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.846012934559576</v>
+        <v>1.813273577758335</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.939149495117363</v>
@@ -14097,7 +14097,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.843508806000793</v>
+        <v>1.808014150802093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.02986729349844</v>
@@ -14186,7 +14186,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.802073201252339</v>
+        <v>1.78350768057684</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.201627599695275</v>
@@ -14275,7 +14275,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.787607583324327</v>
+        <v>1.776099913385155</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.200364345747579</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.783033854470631</v>
+        <v>1.775978396922594</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.14934456003357</v>
@@ -14453,7 +14453,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.782141061388748</v>
+        <v>1.771317666282603</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.106644065682194</v>
@@ -14542,7 +14542,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.77257364389602</v>
+        <v>1.760757630985645</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.208381790548279</v>
@@ -14631,7 +14631,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.764871235304504</v>
+        <v>1.750416663511915</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.058764185758615</v>
@@ -14720,7 +14720,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.771407571729114</v>
+        <v>1.758247824192747</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.124601634357092</v>
@@ -14809,7 +14809,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.772976719092658</v>
+        <v>1.760178217377284</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.041749870684518</v>
@@ -14898,7 +14898,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.772443451377926</v>
+        <v>1.756860127432215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.165596688423238</v>
@@ -14987,7 +14987,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.764540074421894</v>
+        <v>1.750216721102572</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.084678709646022</v>
@@ -15076,7 +15076,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.759538817022263</v>
+        <v>1.742079732612549</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.080366152670222</v>
@@ -15165,7 +15165,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.763986117809695</v>
+        <v>1.74713960860877</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.200364476974901</v>
@@ -15254,7 +15254,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.768323025620643</v>
+        <v>1.752514987038558</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.228052393704412</v>
@@ -15540,7 +15540,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.844004718440846</v>
+        <v>1.820592000687019</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.080516468690287</v>
@@ -15629,7 +15629,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.83932025212635</v>
+        <v>1.817989129602029</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.461224889164013</v>
@@ -15718,7 +15718,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.856606834576711</v>
+        <v>1.838140969914069</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.282036448193136</v>
@@ -15807,7 +15807,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.844718152804116</v>
+        <v>1.830182100777697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.246482277241832</v>
@@ -15896,7 +15896,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.843113678744994</v>
+        <v>1.827015297725319</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.948498286825076</v>
@@ -15985,7 +15985,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.848242410515191</v>
+        <v>1.833320713562265</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.160499283020377</v>
@@ -16074,7 +16074,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.846265215058575</v>
+        <v>1.827504839339464</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.997605264264582</v>
@@ -16163,7 +16163,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.848082881389741</v>
+        <v>1.829848480176654</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.38450038849887</v>
@@ -16252,7 +16252,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.839469974185319</v>
+        <v>1.82534983666861</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.991133471424021</v>
@@ -16341,7 +16341,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847743492519743</v>
+        <v>1.83396321530439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.849328099705779</v>
@@ -16430,7 +16430,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.845258515618712</v>
+        <v>1.834860596195346</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.001618555157584</v>
@@ -16519,7 +16519,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.856303166251057</v>
+        <v>1.847854773725512</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962670901371474</v>
@@ -16608,7 +16608,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.848587397384321</v>
+        <v>1.843264887897591</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.041705617607703</v>
@@ -16697,7 +16697,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.850184603012743</v>
+        <v>1.843091785084756</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.908411299672372</v>
@@ -16786,7 +16786,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.867408848202184</v>
+        <v>1.85294265541878</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.646616137166568</v>
@@ -16875,7 +16875,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.875781934496416</v>
+        <v>1.854771617615835</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.36633113560558</v>
@@ -16964,7 +16964,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.885104542540996</v>
+        <v>1.861190144387797</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.362645577613268</v>
@@ -17053,7 +17053,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.883745503567769</v>
+        <v>1.85693228205335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.283324781433484</v>
@@ -17142,7 +17142,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.884834414467669</v>
+        <v>1.859758445743218</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.355413953107998</v>
@@ -17231,7 +17231,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.895545631633734</v>
+        <v>1.865180966571629</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.061233293719626</v>
@@ -17320,7 +17320,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.893199629455077</v>
+        <v>1.861058093033657</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.22793067823641</v>
@@ -17409,7 +17409,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.891164140029693</v>
+        <v>1.858549409550432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.121075979621069</v>
@@ -17498,7 +17498,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.892530839269603</v>
+        <v>1.855413697602659</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.472657586668183</v>
@@ -17587,7 +17587,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.892480540199146</v>
+        <v>1.85333495741315</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.050293613292754</v>
@@ -17676,7 +17676,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.88534685539061</v>
+        <v>1.847196939535818</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.592316151656913</v>
@@ -17765,7 +17765,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.882084476379992</v>
+        <v>1.843619187333685</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.62456977547903</v>
@@ -17854,7 +17854,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.872206744528884</v>
+        <v>1.834623020476442</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.20131658375513</v>
@@ -17943,7 +17943,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.883421337986261</v>
+        <v>1.839309055609805</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.02066859208877</v>
@@ -18032,7 +18032,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.87935594607683</v>
+        <v>1.842054596465519</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.074891422783633</v>
@@ -18121,7 +18121,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.852985789357442</v>
+        <v>1.828987582310488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.081167142857329</v>
@@ -18210,7 +18210,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.837267434653354</v>
+        <v>1.818062534833174</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.396030171218282</v>
@@ -18299,7 +18299,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.837916084829856</v>
+        <v>1.819502935160149</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.296075556428107</v>
@@ -18388,7 +18388,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.827517019908198</v>
+        <v>1.807745779736234</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.381884305164302</v>
@@ -18477,7 +18477,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.828718058795358</v>
+        <v>1.811880004264533</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.374154005957647</v>
@@ -18566,7 +18566,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.825445713079388</v>
+        <v>1.81508593394998</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.311478921461648</v>
@@ -18655,7 +18655,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.828282661438585</v>
+        <v>1.824159464354702</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.349766146044576</v>
@@ -18744,7 +18744,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.830293105478646</v>
+        <v>1.82945274495163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.268205918297748</v>
@@ -18833,7 +18833,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.825636161353259</v>
+        <v>1.826449971395503</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.50389233251794</v>
@@ -18922,7 +18922,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.820747097828948</v>
+        <v>1.821312734755154</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.488455885872352</v>
@@ -19011,7 +19011,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.823438020699686</v>
+        <v>1.820442236471167</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.412364214911047</v>
@@ -19100,7 +19100,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.824372002414574</v>
+        <v>1.82225553502888</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.332068408658273</v>
@@ -19189,7 +19189,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.832585689536283</v>
+        <v>1.833482310008128</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.295864895608648</v>
@@ -19475,7 +19475,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.410182624911592</v>
+        <v>1.425688246175151</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.630581854666779</v>
@@ -19564,7 +19564,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403162764638037</v>
+        <v>1.418414175278627</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.608653672699255</v>
@@ -19653,7 +19653,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.404468725588126</v>
+        <v>1.419947535423204</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.600749791028911</v>
@@ -19742,7 +19742,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404856856823176</v>
+        <v>1.420999638262016</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.597288330933899</v>
@@ -19831,7 +19831,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.419498496536806</v>
+        <v>1.437514917775691</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.576881444480115</v>
@@ -19920,7 +19920,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421695443323568</v>
+        <v>1.439965795975851</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.585834185724764</v>
@@ -20009,7 +20009,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.414703862062877</v>
+        <v>1.426037241062832</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.597404617905274</v>
@@ -20098,7 +20098,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.390145921595485</v>
+        <v>1.390633464453544</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.617510855650179</v>
@@ -20187,7 +20187,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.390651937116317</v>
+        <v>1.391004999842418</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.623253401965038</v>
@@ -20276,7 +20276,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.393495535067515</v>
+        <v>1.391923975179595</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.620473945105152</v>
@@ -20365,7 +20365,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.391758769742089</v>
+        <v>1.390829169897065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.6172995737477</v>
@@ -20454,7 +20454,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.394503081097465</v>
+        <v>1.397106624356669</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.619273603425987</v>
@@ -20543,7 +20543,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.393691152336478</v>
+        <v>1.397004937309713</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.615006193711479</v>
@@ -20632,7 +20632,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401801222025118</v>
+        <v>1.404706124028498</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.634101129865804</v>
@@ -20721,7 +20721,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555106705854375</v>
+        <v>1.548437298505184</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.729729808407074</v>
@@ -20810,7 +20810,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556033569008898</v>
+        <v>1.553681831786424</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.727121211218537</v>
@@ -20899,7 +20899,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508539656600021</v>
+        <v>1.512157516475602</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.742217704637419</v>
@@ -20988,7 +20988,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.500394348993142</v>
+        <v>1.507215018704867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.737225074137945</v>
@@ -21077,7 +21077,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.504763256266905</v>
+        <v>1.511476409538414</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.736769827973325</v>
@@ -21166,7 +21166,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506372242150677</v>
+        <v>1.513643425253772</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.737716114285015</v>
@@ -21255,7 +21255,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507527460837267</v>
+        <v>1.516402620814071</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.778698902092327</v>
@@ -21344,7 +21344,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560547518440998</v>
+        <v>1.554602552232755</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.768511493336689</v>
@@ -21433,7 +21433,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594740824641369</v>
+        <v>1.628097253351666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.758271763096146</v>
@@ -21522,7 +21522,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596853236557579</v>
+        <v>1.634731589544759</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.792941017307115</v>
@@ -21611,7 +21611,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.611859516515053</v>
+        <v>1.652151229239089</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.744800153616448</v>
@@ -21700,7 +21700,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.594307454368936</v>
+        <v>1.635803321249254</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.720396456962741</v>
@@ -21789,7 +21789,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582738889192425</v>
+        <v>1.62432024725356</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.795085947463752</v>
@@ -21878,7 +21878,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585635374568628</v>
+        <v>1.628465133884716</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.813985754955088</v>
@@ -21967,7 +21967,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.544633047124346</v>
+        <v>1.583215919715866</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.250185348133924</v>
@@ -22056,7 +22056,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.431788841252519</v>
+        <v>1.423439040969366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.666137562094672</v>
@@ -22145,7 +22145,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.354457751140128</v>
+        <v>1.34870684735059</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.728669370930096</v>
@@ -22234,7 +22234,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.365354433423656</v>
+        <v>1.358718838243329</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.691193088914455</v>
@@ -22323,7 +22323,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.364298243305945</v>
+        <v>1.355821708212974</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.698129156441355</v>
@@ -22412,7 +22412,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.361950870995931</v>
+        <v>1.353030812772591</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.6973386741952</v>
@@ -22501,7 +22501,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.362718709958634</v>
+        <v>1.354660147116507</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.710439081093379</v>
@@ -22590,7 +22590,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.362247423476794</v>
+        <v>1.353286232732513</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.702106956187635</v>
@@ -22679,7 +22679,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.360896127423186</v>
+        <v>1.351003293704995</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.706401033560827</v>
@@ -22768,7 +22768,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.357182513502726</v>
+        <v>1.346121415282177</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.718862310248231</v>
@@ -22857,7 +22857,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.355359861832013</v>
+        <v>1.342783986014253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.71098196950799</v>
@@ -22946,7 +22946,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.351409598523392</v>
+        <v>1.337768174849072</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.699720436343848</v>
@@ -23035,7 +23035,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.355760276271416</v>
+        <v>1.341270310518321</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.70400063622896</v>
@@ -23124,7 +23124,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.357466704308799</v>
+        <v>1.342766438994057</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.695332470840003</v>
@@ -23410,7 +23410,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.727812081746975</v>
+        <v>1.755090961683658</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.771093065014955</v>
@@ -23499,7 +23499,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.713820913884396</v>
+        <v>1.745557322986806</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.735683581961291</v>
@@ -23588,7 +23588,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.74760293612975</v>
+        <v>1.78141370381817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.77435253511309</v>
@@ -23677,7 +23677,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.727562278405573</v>
+        <v>1.767733440760597</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.7112002622845</v>
@@ -23766,7 +23766,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.704913799220316</v>
+        <v>1.746502623713727</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.909194485918456</v>
@@ -23855,7 +23855,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.724724104119997</v>
+        <v>1.766017552938456</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.781860472237005</v>
@@ -23944,7 +23944,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.726728839115206</v>
+        <v>1.765481993782696</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.623121237593395</v>
@@ -24033,7 +24033,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.728927539482359</v>
+        <v>1.767873715188742</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.560960713434671</v>
@@ -24122,7 +24122,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.716216344853176</v>
+        <v>1.757499318065594</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.738195918565857</v>
@@ -24211,7 +24211,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.716442179789063</v>
+        <v>1.757986110932653</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.710738613087322</v>
@@ -24300,7 +24300,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.71660117555972</v>
+        <v>1.760222262060518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.779509109931782</v>
@@ -24389,7 +24389,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.732008038588161</v>
+        <v>1.773740058455436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.720119574345653</v>
@@ -24478,7 +24478,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.702433469256083</v>
+        <v>1.743293853458737</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.654322063728208</v>
@@ -24567,7 +24567,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.695769308313943</v>
+        <v>1.738607950171621</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.808720342818154</v>
@@ -24656,7 +24656,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723664583132835</v>
+        <v>1.761056333845266</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.890790745699677</v>
@@ -24745,7 +24745,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.760621702636757</v>
+        <v>1.783508436832558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.941961640127738</v>
@@ -24834,7 +24834,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.784295528167695</v>
+        <v>1.801096304987605</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.612450947743351</v>
@@ -24923,7 +24923,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.785798145354992</v>
+        <v>1.797295487045873</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.906044066209404</v>
@@ -25012,7 +25012,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.792546842355304</v>
+        <v>1.799313184267168</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.800557911496452</v>
@@ -25101,7 +25101,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.823956091246542</v>
+        <v>1.821138504224086</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.844858217032557</v>
@@ -25190,7 +25190,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.819753467170287</v>
+        <v>1.812684137227181</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.303892275796069</v>
@@ -25279,7 +25279,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815682752226319</v>
+        <v>1.808552126653584</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.149622426602432</v>
@@ -25368,7 +25368,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.816448810971388</v>
+        <v>1.803687591908453</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.854766107942129</v>
@@ -25457,7 +25457,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.800617043969224</v>
+        <v>1.785332933128518</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.941453848973998</v>
@@ -25546,7 +25546,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.795929115578647</v>
+        <v>1.781130952577074</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.033133994373752</v>
@@ -25635,7 +25635,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.788522281742433</v>
+        <v>1.771349059883151</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.066544277716262</v>
@@ -25724,7 +25724,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.762343465468706</v>
+        <v>1.750202844578858</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.648783469924022</v>
@@ -25813,7 +25813,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.79297779647964</v>
+        <v>1.779595669215974</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.543590223740257</v>
@@ -25902,7 +25902,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.795654574614723</v>
+        <v>1.780528108582192</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.71497085679786</v>
@@ -25991,7 +25991,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.771659225650891</v>
+        <v>1.765349918473127</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.777152551912763</v>
@@ -26080,7 +26080,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.764121399830168</v>
+        <v>1.765596157344711</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.590658719203946</v>
@@ -26169,7 +26169,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.766309873946632</v>
+        <v>1.769030165908465</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.768352768063536</v>
@@ -26258,7 +26258,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734541464661865</v>
+        <v>1.740905426913141</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.539281556501193</v>
@@ -26347,7 +26347,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727548743944712</v>
+        <v>1.738990655865132</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.685954140494036</v>
@@ -26436,7 +26436,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712685232207982</v>
+        <v>1.731497132377837</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.79679364312584</v>
@@ -26525,7 +26525,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716239807640256</v>
+        <v>1.743279064452663</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.84342699264415</v>
@@ -26614,7 +26614,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719521001213901</v>
+        <v>1.747258822657047</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.804717889612005</v>
@@ -26703,7 +26703,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.716971477052836</v>
+        <v>1.748176728565078</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.719048740121086</v>
@@ -26792,7 +26792,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.717581512567143</v>
+        <v>1.75241839739288</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.709243229637588</v>
@@ -26881,7 +26881,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72508547658285</v>
+        <v>1.756078379181349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.920248632411015</v>
@@ -26970,7 +26970,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.726148217359968</v>
+        <v>1.758223702709706</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.67232134493375</v>
@@ -27059,7 +27059,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.749905042516347</v>
+        <v>1.78099039396316</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.975333587544313</v>
